--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164680.58289205</v>
+        <v>1193524.893646777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564204</v>
+        <v>189902.9539564205</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>217.5685802194609</v>
       </c>
       <c r="F2" t="n">
-        <v>348.1338857353173</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.445065564638</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.0499486797337</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>184.5808806410313</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>356.681260877744</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>32.44203069056119</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1262,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
         <v>196.8897623984489</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1335,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>144.3968844608071</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>323.6929566097325</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,31 +1527,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>153.055538822593</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1610,16 +1612,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>279.9387901805692</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1765,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>49.30642419397967</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>22.35153719005456</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1844,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>158.9897392454093</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>275.4805812731078</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2138,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>308.1699826279567</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>9.275596830496937</v>
+        <v>189.596843649344</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>44.15180985493045</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>357.4847324689627</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>16.88986550434918</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>84.47822743360565</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,25 +2557,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.7328900495182</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>37.72379685445831</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>57.40387281015133</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>113.0940561474149</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.60557849018839</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.165601831728486</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>85.42957511242933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>372.5327915267488</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.7835007017899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>84.95149223441521</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>101.7177065691262</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>146.2546375217499</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3980,16 +3982,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>26.64360395382603</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>94.63926978364043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.483574129469</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.483574129469</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="D2" t="n">
-        <v>1304.217875522719</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="E2" t="n">
-        <v>1304.217875522719</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.483574129469</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.483574129469</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.483574129469</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4391,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1915.885988017521</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C5" t="n">
-        <v>1915.885988017521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D5" t="n">
-        <v>1557.620289410771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E5" t="n">
-        <v>1171.832036812526</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>760.8461320229187</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
-        <v>342.8823239211056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4765,10 +4767,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>414.2270837170756</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2433.173185892622</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2102.110298549051</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1749.341643278937</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4908,22 +4910,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.120910258947</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C11" t="n">
-        <v>1241.158393318536</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5078,13 +5080,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2370.186508584149</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1996.720750323069</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>1996.720750323069</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5118,13 +5120,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
         <v>1194.968834417902</v>
@@ -5139,22 +5141,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>208.54453618662</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.409918978289</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>1551.447402037877</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5282,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y14" t="n">
-        <v>2307.009759042411</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,43 +5357,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>240.076361604524</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5458,28 +5460,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214.5386780278486</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036445</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5540,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>991.2778500677821</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.1385180919704</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
         <v>53.94298182036445</v>
@@ -5610,25 +5612,25 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5695,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>882.8926947117852</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
         <v>882.8926947117852</v>
@@ -5750,19 +5752,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5786,16 +5788,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2385.866280282913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2033.097625012799</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1659.631866751719</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1269.492534775907</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5831,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
         <v>2022.963088632153</v>
@@ -5929,31 +5931,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>2667.732171871844</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>2519.585513306029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2305.297090124192</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2077.988902792793</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>2068.619613065019</v>
+        <v>2505.637127736057</v>
       </c>
       <c r="V22" t="n">
-        <v>2068.619613065019</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="W22" t="n">
-        <v>2068.619613065019</v>
+        <v>2250.95263953017</v>
       </c>
       <c r="X22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>2068.619613065019</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5968,34 @@
         <v>1580.775345511217</v>
       </c>
       <c r="C23" t="n">
-        <v>1211.812828570805</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D23" t="n">
-        <v>1211.812828570805</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E23" t="n">
-        <v>826.0245759725606</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F23" t="n">
-        <v>415.038671182953</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,31 +6007,31 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y23" t="n">
         <v>1580.775345511217</v>
@@ -6063,19 +6065,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.489254012808</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="C25" t="n">
-        <v>415.489254012808</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="D25" t="n">
-        <v>415.489254012808</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="E25" t="n">
-        <v>415.489254012808</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="F25" t="n">
-        <v>268.5993065148977</v>
+        <v>71.00345202677778</v>
       </c>
       <c r="G25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>415.489254012808</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>415.489254012808</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W25" t="n">
-        <v>415.489254012808</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X25" t="n">
-        <v>415.489254012808</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.489254012808</v>
+        <v>252.6519168570175</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1253.251950079336</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C26" t="n">
-        <v>1253.251950079336</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D26" t="n">
-        <v>1253.251950079336</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E26" t="n">
-        <v>1253.251950079336</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F26" t="n">
-        <v>842.2660452897285</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G26" t="n">
-        <v>424.3022371879154</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>97.10751722391819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6236,40 +6238,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2366.086203674652</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W26" t="n">
-        <v>2013.317548404538</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X26" t="n">
-        <v>1639.851790143458</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y26" t="n">
-        <v>1639.851790143458</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6315,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2334.714009270569</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2296.609163963036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>2296.609163963036</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V28" t="n">
-        <v>2296.609163963036</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
-        <v>2296.609163963036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>750.1002187247734</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C29" t="n">
-        <v>381.1377017843616</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D29" t="n">
-        <v>381.1377017843616</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
@@ -6491,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2584.136691639472</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2584.136691639472</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2253.073804295901</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1900.305149025787</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1526.839390764707</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1136.700058788895</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6561,22 +6563,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2442.464602812336</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>2273.528419884429</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>2273.528419884429</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V31" t="n">
-        <v>2442.464602812336</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W31" t="n">
-        <v>2442.464602812336</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X31" t="n">
-        <v>2442.464602812336</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2442.464602812336</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1954.141365880777</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C32" t="n">
-        <v>1954.141365880777</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D32" t="n">
-        <v>1595.875667274027</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2680.375779411972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2680.375779411972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2680.375779411972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V32" t="n">
-        <v>2680.375779411972</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W32" t="n">
-        <v>2327.607124141857</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X32" t="n">
-        <v>1954.141365880777</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1954.141365880777</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.939341837732</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H34" t="n">
         <v>2022.963088632153</v>
@@ -6865,43 +6867,43 @@
         <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>2471.7452186737</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>2243.755667775683</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2186.939341837732</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2610.856590904657</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2279.793703561087</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>1927.025048290972</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1553.559290029893</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1553.559290029893</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7013,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W37" t="n">
-        <v>2407.731920981262</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X37" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y37" t="n">
-        <v>2179.742370083244</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1954.241103772296</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C38" t="n">
-        <v>1585.278586831885</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D38" t="n">
-        <v>1227.012888225134</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E38" t="n">
-        <v>841.2246356268899</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F38" t="n">
-        <v>430.2387308372824</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X38" t="n">
-        <v>2344.380435748108</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1954.241103772296</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7336,40 +7338,40 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="V40" t="n">
-        <v>2442.464602812336</v>
+        <v>2540.369809567132</v>
       </c>
       <c r="W40" t="n">
-        <v>2153.047432775375</v>
+        <v>2250.952639530171</v>
       </c>
       <c r="X40" t="n">
         <v>2022.963088632153</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1108.365917331524</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>739.4034003911122</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>381.1377017843616</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E41" t="n">
-        <v>381.1377017843616</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F41" t="n">
-        <v>381.1377017843616</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2611.339502902651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2611.339502902651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2258.570847632537</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>1885.105089371457</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1494.965757395646</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7509,22 +7511,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.6044479702274</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C43" t="n">
-        <v>359.6044479702274</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D43" t="n">
-        <v>359.6044479702274</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="E43" t="n">
-        <v>211.6913543878343</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6913543878343</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>156.688139970997</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X43" t="n">
-        <v>580.3970271137575</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.6044479702274</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>781.1711973675267</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>412.208680427115</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>53.94298182036446</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036446</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7646,13 +7648,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7679,19 +7681,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2615.207670282225</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2284.144782938654</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1931.37612766854</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1557.91036940746</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1167.771037431648</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7810,43 +7812,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610023</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W46" t="n">
-        <v>149.5382038240417</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>149.5382038240417</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
         <v>53.94298182036446</v>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451752</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142014</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N24" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9963,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>435.9238900028826</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10674,10 +10676,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10914,10 +10916,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P39" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11154,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>199.0269485415596</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11388,13 +11390,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>164.3617898528009</v>
       </c>
       <c r="F2" t="n">
-        <v>58.74216000639416</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,16 +22713,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>37.8728240846234</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>31.86743971662654</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -23005,10 +23007,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>57.10290914305097</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>218.7821368177281</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23200,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,28 +23223,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>80.63822099727722</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>25.54801210768051</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3.115350019202168</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23498,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>74.74425144011371</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>27.53450764830094</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>202.6835682680297</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23732,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>206.2831525255983</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>168.53933734988</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>89.79231049789979</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24026,10 +24028,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>19.58227584217821</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>277.0062774114808</v>
+        <v>96.68503059263375</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>321.1210819160771</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>56.29943755183228</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>150.4199367547017</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>201.8036468083721</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>109.198426195343</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24500,16 +24502,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24622,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>187.3113086036259</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,16 +24688,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24731,16 +24733,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>159.0444475475065</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>33.33990649915425</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,10 +24858,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>168.8276855108789</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24895,16 +24897,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S32" t="n">
-        <v>157.8101343187832</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24977,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>161.1442004273224</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>63.37316471551387</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25208,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>165.79459239586</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>12.09831362247056</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25366,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>41.25137849404621</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,10 +25453,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25570,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,25 +25596,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>69.82361682150392</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>96.92615468724728</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,13 +25684,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>166.2726752738741</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>54.45318227266894</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>79.45501786728724</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25919,13 +25921,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>224.5805635544633</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>123.9453835684544</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.4345746958</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731739.4345746959</v>
+        <v>731739.434574696</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731739.434574696</v>
+        <v>731739.4345746959</v>
       </c>
     </row>
   </sheetData>
@@ -26314,13 +26316,13 @@
         <v>289152.6100157576</v>
       </c>
       <c r="C2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="F2" t="n">
         <v>289152.6100157576</v>
@@ -26329,22 +26331,22 @@
         <v>289152.6100157574</v>
       </c>
       <c r="H2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="I2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="J2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="K2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="L2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157577</v>
       </c>
       <c r="N2" t="n">
         <v>289152.6100157576</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="D4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="D4" t="n">
-        <v>9371.018034361485</v>
-      </c>
       <c r="E4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="F4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="G4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="H4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="I4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="J4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="M4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="N4" t="n">
+        <v>9371.018034361483</v>
+      </c>
+      <c r="O4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="O4" t="n">
-        <v>9371.018034361481</v>
-      </c>
       <c r="P4" t="n">
-        <v>9371.018034361485</v>
+        <v>9371.018034361483</v>
       </c>
     </row>
     <row r="5">
@@ -26488,25 +26490,25 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340947</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393045.3652965577</v>
+        <v>-393045.3652965578</v>
       </c>
       <c r="C6" t="n">
+        <v>196922.5139179865</v>
+      </c>
+      <c r="D6" t="n">
         <v>196922.5139179866</v>
       </c>
-      <c r="D6" t="n">
-        <v>196922.5139179864</v>
-      </c>
       <c r="E6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179868</v>
       </c>
       <c r="F6" t="n">
         <v>230550.1139179867</v>
@@ -26537,31 +26539,31 @@
         <v>230550.1139179865</v>
       </c>
       <c r="H6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179864</v>
       </c>
       <c r="I6" t="n">
         <v>230550.1139179867</v>
       </c>
       <c r="J6" t="n">
-        <v>54126.89472539363</v>
+        <v>54126.89472539383</v>
       </c>
       <c r="K6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179867</v>
       </c>
       <c r="L6" t="n">
-        <v>230550.1139179865</v>
+        <v>230550.1139179868</v>
       </c>
       <c r="M6" t="n">
-        <v>230550.1139179866</v>
+        <v>230550.1139179867</v>
       </c>
       <c r="N6" t="n">
         <v>230550.1139179866</v>
       </c>
       <c r="O6" t="n">
+        <v>230550.1139179865</v>
+      </c>
+      <c r="P6" t="n">
         <v>230550.1139179866</v>
-      </c>
-      <c r="P6" t="n">
-        <v>230550.1139179867</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26753,31 +26755,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26808,25 +26810,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545557</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32248,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32336,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,43 +33417,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P32" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33989,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34226,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,19 +35734,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35975,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36209,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36443,16 +36445,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P32" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37239,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37394,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37631,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P39" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
